--- a/Code/Results/Cases/Case_6_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_19/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24678805718552</v>
+        <v>26.24678805718539</v>
       </c>
       <c r="C2">
-        <v>19.79684940052529</v>
+        <v>19.79684940052504</v>
       </c>
       <c r="D2">
-        <v>9.442240316331045</v>
+        <v>9.442240316330917</v>
       </c>
       <c r="E2">
-        <v>30.67466357065957</v>
+        <v>30.67466357065958</v>
       </c>
       <c r="F2">
-        <v>63.54804827132386</v>
+        <v>63.54804827132331</v>
       </c>
       <c r="G2">
-        <v>2.01043986827302</v>
+        <v>2.0104398682729</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.2195804342074</v>
+        <v>24.21958043420731</v>
       </c>
       <c r="C3">
-        <v>18.26974872213651</v>
+        <v>18.26974872213664</v>
       </c>
       <c r="D3">
-        <v>8.914116238228251</v>
+        <v>8.91411623822815</v>
       </c>
       <c r="E3">
-        <v>28.22440394926879</v>
+        <v>28.22440394926874</v>
       </c>
       <c r="F3">
-        <v>59.22243557171291</v>
+        <v>59.22243557171277</v>
       </c>
       <c r="G3">
-        <v>2.02939534136715</v>
+        <v>2.029395341367025</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.93078980953413</v>
+        <v>22.93078980953399</v>
       </c>
       <c r="C4">
-        <v>17.30170589585188</v>
+        <v>17.30170589585205</v>
       </c>
       <c r="D4">
-        <v>8.588640760383983</v>
+        <v>8.588640760384006</v>
       </c>
       <c r="E4">
-        <v>26.679415849612</v>
+        <v>26.67941584961204</v>
       </c>
       <c r="F4">
-        <v>56.51277687824813</v>
+        <v>56.51277687824836</v>
       </c>
       <c r="G4">
-        <v>2.041032923589058</v>
+        <v>2.041032923588919</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.39372297482672</v>
+        <v>22.39372297482668</v>
       </c>
       <c r="C5">
-        <v>16.89888094117251</v>
+        <v>16.89888094117238</v>
       </c>
       <c r="D5">
-        <v>8.455562333510052</v>
+        <v>8.45556233350997</v>
       </c>
       <c r="E5">
-        <v>26.03828905836545</v>
+        <v>26.0382890583654</v>
       </c>
       <c r="F5">
         <v>55.39410197988818</v>
       </c>
       <c r="G5">
-        <v>2.045788770045568</v>
+        <v>2.0457887700457</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.30380541782457</v>
+        <v>22.30380541782447</v>
       </c>
       <c r="C6">
-        <v>16.83147007907148</v>
+        <v>16.8314700790715</v>
       </c>
       <c r="D6">
-        <v>8.433434851819758</v>
+        <v>8.433434851819753</v>
       </c>
       <c r="E6">
-        <v>25.93109875840172</v>
+        <v>25.93109875840161</v>
       </c>
       <c r="F6">
-        <v>55.20745322129695</v>
+        <v>55.20745322129681</v>
       </c>
       <c r="G6">
-        <v>2.046579647295387</v>
+        <v>2.046579647295397</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92359577425722</v>
+        <v>22.92359577425729</v>
       </c>
       <c r="C7">
-        <v>17.29630786899277</v>
+        <v>17.2963078689928</v>
       </c>
       <c r="D7">
-        <v>8.586847963810614</v>
+        <v>8.586847963810564</v>
       </c>
       <c r="E7">
-        <v>26.67081769861642</v>
+        <v>26.67081769861648</v>
       </c>
       <c r="F7">
-        <v>56.49774957047104</v>
+        <v>56.49774957047116</v>
       </c>
       <c r="G7">
-        <v>2.041096991607547</v>
+        <v>2.041096991607814</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.55643791326116</v>
+        <v>25.5564379132614</v>
       </c>
       <c r="C8">
-        <v>19.27615912934608</v>
+        <v>19.27615912934614</v>
       </c>
       <c r="D8">
-        <v>9.260289089134433</v>
+        <v>9.260289089134476</v>
       </c>
       <c r="E8">
-        <v>29.83734108505741</v>
+        <v>29.83734108505753</v>
       </c>
       <c r="F8">
-        <v>62.06700749866994</v>
+        <v>62.06700749867041</v>
       </c>
       <c r="G8">
-        <v>2.016984953209744</v>
+        <v>2.016984953209485</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.41370968656154</v>
+        <v>30.4137096865615</v>
       </c>
       <c r="C9">
-        <v>22.95616959896672</v>
+        <v>22.95616959896658</v>
       </c>
       <c r="D9">
-        <v>10.58149212437356</v>
+        <v>10.58149212437352</v>
       </c>
       <c r="E9">
-        <v>35.80129715655013</v>
+        <v>35.80129715655014</v>
       </c>
       <c r="F9">
-        <v>72.63218803581502</v>
+        <v>72.63218803581482</v>
       </c>
       <c r="G9">
-        <v>1.968923078333865</v>
+        <v>1.968923078333999</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.87605203283833</v>
+        <v>33.87605203283827</v>
       </c>
       <c r="C10">
-        <v>25.60710150872042</v>
+        <v>25.60710150872044</v>
       </c>
       <c r="D10">
         <v>11.5744224058135</v>
       </c>
       <c r="E10">
-        <v>40.17484901729082</v>
+        <v>40.1748490172908</v>
       </c>
       <c r="F10">
-        <v>80.54051721636871</v>
+        <v>80.54051721636861</v>
       </c>
       <c r="G10">
-        <v>1.931726294618737</v>
+        <v>1.931726294619009</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.45422905916188</v>
+        <v>35.45422905916211</v>
       </c>
       <c r="C11">
-        <v>26.82484214780176</v>
+        <v>26.8248421478018</v>
       </c>
       <c r="D11">
-        <v>12.03904925477304</v>
+        <v>12.03904925477316</v>
       </c>
       <c r="E11">
-        <v>42.21059482593152</v>
+        <v>42.21059482593157</v>
       </c>
       <c r="F11">
-        <v>84.18346965236219</v>
+        <v>84.1834696523631</v>
       </c>
       <c r="G11">
-        <v>1.913929765371221</v>
+        <v>1.913929765371355</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.05549049343358</v>
+        <v>36.05549049343351</v>
       </c>
       <c r="C12">
-        <v>27.29052468993861</v>
+        <v>27.29052468993842</v>
       </c>
       <c r="D12">
-        <v>12.21789564228072</v>
+        <v>12.21789564228066</v>
       </c>
       <c r="E12">
-        <v>42.99415990142964</v>
+        <v>42.9941599014295</v>
       </c>
       <c r="F12">
-        <v>85.57443696644053</v>
+        <v>85.57443696643968</v>
       </c>
       <c r="G12">
-        <v>1.907007552749306</v>
+        <v>1.907007552749055</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.92577224411576</v>
+        <v>35.92577224411559</v>
       </c>
       <c r="C13">
-        <v>27.18997185068523</v>
+        <v>27.18997185068516</v>
       </c>
       <c r="D13">
-        <v>12.17922750502239</v>
+        <v>12.17922750502244</v>
       </c>
       <c r="E13">
-        <v>42.82471849117044</v>
+        <v>42.82471849117048</v>
       </c>
       <c r="F13">
         <v>85.27421405460503</v>
       </c>
       <c r="G13">
-        <v>1.908507665485184</v>
+        <v>1.908507665484936</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.50359968010169</v>
+        <v>35.50359968010177</v>
       </c>
       <c r="C14">
-        <v>26.86304268634447</v>
+        <v>26.8630426863445</v>
       </c>
       <c r="D14">
         <v>12.05369738572318</v>
       </c>
       <c r="E14">
-        <v>42.27476186777437</v>
+        <v>42.27476186777427</v>
       </c>
       <c r="F14">
-        <v>84.29762506640695</v>
+        <v>84.29762506640677</v>
       </c>
       <c r="G14">
-        <v>1.913364344850146</v>
+        <v>1.913364344850266</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.24559565407782</v>
+        <v>35.24559565407762</v>
       </c>
       <c r="C15">
-        <v>26.66348472232207</v>
+        <v>26.66348472232203</v>
       </c>
       <c r="D15">
-        <v>11.97722265277079</v>
+        <v>11.97722265277063</v>
       </c>
       <c r="E15">
-        <v>41.93976813747321</v>
+        <v>41.93976813747307</v>
       </c>
       <c r="F15">
-        <v>83.70118603006374</v>
+        <v>83.70118603006286</v>
       </c>
       <c r="G15">
-        <v>1.916313299920919</v>
+        <v>1.916313299921048</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.77322494453301</v>
+        <v>33.77322494453319</v>
       </c>
       <c r="C16">
-        <v>25.52797788720414</v>
+        <v>25.52797788720417</v>
       </c>
       <c r="D16">
-        <v>11.54439831699559</v>
+        <v>11.54439831699562</v>
       </c>
       <c r="E16">
-        <v>40.04320168908148</v>
+        <v>40.04320168908152</v>
       </c>
       <c r="F16">
-        <v>80.30360017115534</v>
+        <v>80.30360017115569</v>
       </c>
       <c r="G16">
-        <v>1.932867294210585</v>
+        <v>1.932867294210602</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.87271381570703</v>
+        <v>32.87271381570705</v>
       </c>
       <c r="C17">
-        <v>24.8361350709005</v>
+        <v>24.83613507090027</v>
       </c>
       <c r="D17">
-        <v>11.28281053043262</v>
+        <v>11.28281053043266</v>
       </c>
       <c r="E17">
-        <v>38.89516505701491</v>
+        <v>38.89516505701497</v>
       </c>
       <c r="F17">
-        <v>78.23133573472913</v>
+        <v>78.23133573472921</v>
       </c>
       <c r="G17">
-        <v>1.942763750988329</v>
+        <v>1.942763750988218</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.35481734302601</v>
+        <v>32.35481734302608</v>
       </c>
       <c r="C18">
-        <v>24.43910093995105</v>
+        <v>24.43910093995103</v>
       </c>
       <c r="D18">
-        <v>11.13348911491295</v>
+        <v>11.13348911491286</v>
       </c>
       <c r="E18">
-        <v>38.23872953362995</v>
+        <v>38.23872953363003</v>
       </c>
       <c r="F18">
-        <v>77.04173180354539</v>
+        <v>77.0417318035453</v>
       </c>
       <c r="G18">
-        <v>1.948377868415464</v>
+        <v>1.948377868415481</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.17939591197619</v>
+        <v>32.17939591197628</v>
       </c>
       <c r="C19">
-        <v>24.30475469442354</v>
+        <v>24.30475469442353</v>
       </c>
       <c r="D19">
-        <v>11.0831011899563</v>
+        <v>11.08310118995634</v>
       </c>
       <c r="E19">
-        <v>38.01699054411646</v>
+        <v>38.01699054411648</v>
       </c>
       <c r="F19">
-        <v>76.63917250456595</v>
+        <v>76.63917250456609</v>
       </c>
       <c r="G19">
-        <v>1.950266731702557</v>
+        <v>1.950266731702673</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.96854963280251</v>
+        <v>32.96854963280287</v>
       </c>
       <c r="C20">
-        <v>24.90967278290244</v>
+        <v>24.90967278290259</v>
       </c>
       <c r="D20">
-        <v>11.31053303980031</v>
+        <v>11.31053303980038</v>
       </c>
       <c r="E20">
-        <v>39.0169369706662</v>
+        <v>39.01693697066646</v>
       </c>
       <c r="F20">
-        <v>78.45164968891373</v>
+        <v>78.45164968891439</v>
       </c>
       <c r="G20">
-        <v>1.941718685536918</v>
+        <v>1.941718685536793</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.62747179442948</v>
+        <v>35.62747179442938</v>
       </c>
       <c r="C21">
-        <v>26.95891802727058</v>
+        <v>26.95891802727065</v>
       </c>
       <c r="D21">
-        <v>12.09047941382329</v>
+        <v>12.09047941382318</v>
       </c>
       <c r="E21">
-        <v>42.43589318647886</v>
+        <v>42.4358931864789</v>
       </c>
       <c r="F21">
-        <v>84.58409143282374</v>
+        <v>84.5840914328231</v>
       </c>
       <c r="G21">
-        <v>1.911943352712942</v>
+        <v>1.911943352712803</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38893267083126</v>
+        <v>37.38893267083112</v>
       </c>
       <c r="C22">
-        <v>28.32698059617303</v>
+        <v>28.32698059617301</v>
       </c>
       <c r="D22">
-        <v>12.61797675994069</v>
+        <v>12.61797675994059</v>
       </c>
       <c r="E22">
-        <v>44.74911616656801</v>
+        <v>44.74911616656789</v>
       </c>
       <c r="F22">
-        <v>88.66440359819461</v>
+        <v>88.66440359819391</v>
       </c>
       <c r="G22">
-        <v>1.891371730508888</v>
+        <v>1.891371730509006</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.4452367082963</v>
+        <v>36.44523670829638</v>
       </c>
       <c r="C23">
-        <v>27.59292849431204</v>
+        <v>27.59292849431245</v>
       </c>
       <c r="D23">
-        <v>12.33434832085116</v>
+        <v>12.33434832085117</v>
       </c>
       <c r="E23">
-        <v>43.50458967050601</v>
+        <v>43.50458967050596</v>
       </c>
       <c r="F23">
-        <v>86.47688851490052</v>
+        <v>86.47688851490105</v>
       </c>
       <c r="G23">
-        <v>1.902478127042033</v>
+        <v>1.902478127042176</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.92522304524119</v>
+        <v>32.92522304524108</v>
       </c>
       <c r="C24">
-        <v>24.87642435347647</v>
+        <v>24.87642435347658</v>
       </c>
       <c r="D24">
-        <v>11.29799643622042</v>
+        <v>11.29799643622025</v>
       </c>
       <c r="E24">
-        <v>38.9618731367764</v>
+        <v>38.96187313677633</v>
       </c>
       <c r="F24">
-        <v>78.35204073660901</v>
+        <v>78.3520407366083</v>
       </c>
       <c r="G24">
-        <v>1.942191390765368</v>
+        <v>1.942191390765355</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.12536297092007</v>
+        <v>29.12536297092033</v>
       </c>
       <c r="C25">
-        <v>21.9760943554472</v>
+        <v>21.97609435544706</v>
       </c>
       <c r="D25">
-        <v>10.22222143521092</v>
+        <v>10.22222143521094</v>
       </c>
       <c r="E25">
-        <v>34.20189188957365</v>
+        <v>34.20189188957372</v>
       </c>
       <c r="F25">
-        <v>69.7998356797699</v>
+        <v>69.79983567977028</v>
       </c>
       <c r="G25">
-        <v>1.982132171959331</v>
+        <v>1.982132171958937</v>
       </c>
       <c r="H25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,43 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.24678805718539</v>
+        <v>24.94308144648824</v>
       </c>
       <c r="C2">
-        <v>19.79684940052504</v>
+        <v>21.58519479409142</v>
       </c>
       <c r="D2">
-        <v>9.442240316330917</v>
+        <v>3.172920026738549</v>
       </c>
       <c r="E2">
-        <v>30.67466357065958</v>
+        <v>30.01148016419559</v>
       </c>
       <c r="F2">
-        <v>63.54804827132331</v>
+        <v>22.43282096852754</v>
       </c>
       <c r="G2">
-        <v>2.0104398682729</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>31.28937338776164</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.955968496043898</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.575560831914753</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12.61737568504521</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,40 +465,43 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21958043420731</v>
+        <v>23.28835297949403</v>
       </c>
       <c r="C3">
-        <v>18.26974872213664</v>
+        <v>20.17920820822495</v>
       </c>
       <c r="D3">
-        <v>8.91411623822815</v>
+        <v>3.169207893864802</v>
       </c>
       <c r="E3">
-        <v>28.22440394926874</v>
+        <v>27.79961142433553</v>
       </c>
       <c r="F3">
-        <v>59.22243557171277</v>
+        <v>21.38414764847752</v>
       </c>
       <c r="G3">
-        <v>2.029395341367025</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>29.56294045941251</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.677163409813299</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.40843685713501</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.67875287897997</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -509,40 +515,43 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.93078980953399</v>
+        <v>22.21366093938064</v>
       </c>
       <c r="C4">
-        <v>17.30170589585205</v>
+        <v>19.27554437604578</v>
       </c>
       <c r="D4">
-        <v>8.588640760384006</v>
+        <v>3.167561397034676</v>
       </c>
       <c r="E4">
-        <v>26.67941584961204</v>
+        <v>26.3807008810615</v>
       </c>
       <c r="F4">
-        <v>56.51277687824836</v>
+        <v>20.73882656332893</v>
       </c>
       <c r="G4">
-        <v>2.041032923588919</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>28.49083949975601</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.502426779641838</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.313597194351102</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.72990372569956</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -556,40 +565,43 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.39372297482668</v>
+        <v>21.76058962036348</v>
       </c>
       <c r="C5">
-        <v>16.89888094117238</v>
+        <v>18.90865478611785</v>
       </c>
       <c r="D5">
-        <v>8.45556233350997</v>
+        <v>3.168777135723311</v>
       </c>
       <c r="E5">
-        <v>26.0382890583654</v>
+        <v>25.78665342752303</v>
       </c>
       <c r="F5">
-        <v>55.39410197988818</v>
+        <v>20.45706410749041</v>
       </c>
       <c r="G5">
-        <v>2.0457887700457</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>28.01738293302167</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.430361273174948</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.270207986549163</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>12.7407609722592</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -603,40 +615,43 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.30380541782447</v>
+        <v>21.68412198155679</v>
       </c>
       <c r="C6">
-        <v>16.8314700790715</v>
+        <v>18.86128961335256</v>
       </c>
       <c r="D6">
-        <v>8.433434851819753</v>
+        <v>3.171121974242187</v>
       </c>
       <c r="E6">
-        <v>25.93109875840161</v>
+        <v>25.68690209249982</v>
       </c>
       <c r="F6">
-        <v>55.20745322129681</v>
+        <v>20.38738756989021</v>
       </c>
       <c r="G6">
-        <v>2.046579647295397</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>27.89705099453713</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.418606895448627</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.255011420978049</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>12.72675892881022</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -650,40 +665,43 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.92359577425729</v>
+        <v>22.20671007374737</v>
       </c>
       <c r="C7">
-        <v>17.2963078689928</v>
+        <v>19.30845431302579</v>
       </c>
       <c r="D7">
-        <v>8.586847963810564</v>
+        <v>3.173453669286967</v>
       </c>
       <c r="E7">
-        <v>26.67081769861648</v>
+        <v>26.37233537825206</v>
       </c>
       <c r="F7">
-        <v>56.49774957047116</v>
+        <v>20.67345545494991</v>
       </c>
       <c r="G7">
-        <v>2.041096991607814</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>28.37302875873894</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.50189490655549</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.290980109979827</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.68626698839713</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -697,40 +715,43 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.5564379132614</v>
+        <v>24.38352783020316</v>
       </c>
       <c r="C8">
-        <v>19.27615912934614</v>
+        <v>21.15501596777912</v>
       </c>
       <c r="D8">
-        <v>9.260289089134476</v>
+        <v>3.179537711700251</v>
       </c>
       <c r="E8">
-        <v>29.83734108505753</v>
+        <v>29.26059751751236</v>
       </c>
       <c r="F8">
-        <v>62.06700749867041</v>
+        <v>21.99467563882916</v>
       </c>
       <c r="G8">
-        <v>2.016984953209485</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>30.55896430617418</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.860647343248495</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.487726149850612</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.57732451251094</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -744,40 +765,43 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.4137096865615</v>
+        <v>28.19290278116164</v>
       </c>
       <c r="C9">
-        <v>22.95616959896658</v>
+        <v>24.39980507880212</v>
       </c>
       <c r="D9">
-        <v>10.58149212437352</v>
+        <v>3.185797163727982</v>
       </c>
       <c r="E9">
-        <v>35.80129715655014</v>
+        <v>34.46335409541976</v>
       </c>
       <c r="F9">
-        <v>72.63218803581482</v>
+        <v>24.66647323454185</v>
       </c>
       <c r="G9">
-        <v>1.968923078333999</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>34.91750631635735</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>4.539124298408021</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.976749768835369</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.5634867217338</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -791,40 +815,43 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.87605203283827</v>
+        <v>30.7177510810272</v>
       </c>
       <c r="C10">
-        <v>25.60710150872044</v>
+        <v>26.6140271731334</v>
       </c>
       <c r="D10">
-        <v>11.5744224058135</v>
+        <v>3.197344917956122</v>
       </c>
       <c r="E10">
-        <v>40.1748490172908</v>
+        <v>38.03608087990279</v>
       </c>
       <c r="F10">
-        <v>80.54051721636861</v>
+        <v>26.58286553855087</v>
       </c>
       <c r="G10">
-        <v>1.931726294619009</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>37.99882132270059</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5.026772231314881</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.3696960400201</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.62532195421664</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -838,40 +865,43 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.45422905916211</v>
+        <v>31.80761154670709</v>
       </c>
       <c r="C11">
-        <v>26.8248421478018</v>
+        <v>27.62775245257356</v>
       </c>
       <c r="D11">
-        <v>12.03904925477316</v>
+        <v>3.21451956322756</v>
       </c>
       <c r="E11">
-        <v>42.21059482593157</v>
+        <v>39.61459479175513</v>
       </c>
       <c r="F11">
-        <v>84.1834696523631</v>
+        <v>27.37368470365023</v>
       </c>
       <c r="G11">
-        <v>1.913929765371355</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>39.3061726052534</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5.247907975071698</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.52734875740375</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.60751724561919</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -885,40 +915,43 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.05549049343351</v>
+        <v>32.21286851605198</v>
       </c>
       <c r="C12">
-        <v>27.29052468993842</v>
+        <v>27.98169516408214</v>
       </c>
       <c r="D12">
-        <v>12.21789564228066</v>
+        <v>3.215427208973541</v>
       </c>
       <c r="E12">
-        <v>42.9941599014295</v>
+        <v>40.20704301757286</v>
       </c>
       <c r="F12">
-        <v>85.57443696643968</v>
+        <v>27.71480620257323</v>
       </c>
       <c r="G12">
-        <v>1.907007552749055</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>39.87450230357955</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5.331295260664352</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.60584638104839</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.64273249563317</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -932,40 +965,43 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.92577224411559</v>
+        <v>32.12607682766924</v>
       </c>
       <c r="C13">
-        <v>27.18997185068516</v>
+        <v>27.90088309999386</v>
       </c>
       <c r="D13">
-        <v>12.17922750502244</v>
+        <v>3.214053123734724</v>
       </c>
       <c r="E13">
-        <v>42.82471849117048</v>
+        <v>40.07979267575375</v>
       </c>
       <c r="F13">
-        <v>85.27421405460503</v>
+        <v>27.64961050230452</v>
       </c>
       <c r="G13">
-        <v>1.908507665484936</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>39.76644550921134</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5.313245367779563</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.59226526260631</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.6425513038555</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -979,40 +1015,43 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.50359968010177</v>
+        <v>31.84116902391085</v>
       </c>
       <c r="C14">
-        <v>26.8630426863445</v>
+        <v>27.65491356591168</v>
       </c>
       <c r="D14">
-        <v>12.05369738572318</v>
+        <v>3.214094326524951</v>
       </c>
       <c r="E14">
-        <v>42.27476186777427</v>
+        <v>39.66348909204493</v>
       </c>
       <c r="F14">
-        <v>84.29762506640677</v>
+        <v>27.40529139064379</v>
       </c>
       <c r="G14">
-        <v>1.913364344850266</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>39.35908239278616</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5.254724857071578</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.53522437234301</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.61356013115944</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1026,40 +1065,43 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.24559565407762</v>
+        <v>31.66534785860943</v>
       </c>
       <c r="C15">
-        <v>26.66348472232203</v>
+        <v>27.51320783584488</v>
       </c>
       <c r="D15">
-        <v>11.97722265277063</v>
+        <v>3.216439869309077</v>
       </c>
       <c r="E15">
-        <v>41.93976813747307</v>
+        <v>39.40756987646571</v>
       </c>
       <c r="F15">
-        <v>83.70118603006286</v>
+        <v>27.23906976576681</v>
       </c>
       <c r="G15">
-        <v>1.916313299921048</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>39.08066994623039</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5.219122320464706</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.49374360403099</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.58135243535914</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1073,40 +1115,43 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.77322494453319</v>
+        <v>30.6431933111296</v>
       </c>
       <c r="C16">
-        <v>25.52797788720417</v>
+        <v>26.6301060325048</v>
       </c>
       <c r="D16">
-        <v>11.54439831699562</v>
+        <v>3.215413961501683</v>
       </c>
       <c r="E16">
-        <v>40.04320168908152</v>
+        <v>37.93047256997998</v>
       </c>
       <c r="F16">
-        <v>80.30360017115569</v>
+        <v>26.38895993578022</v>
       </c>
       <c r="G16">
-        <v>1.932867294210602</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>37.66865197801809</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>5.01367132217232</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.30196400177566</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.50022008070711</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1120,40 +1165,43 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.87271381570705</v>
+        <v>30.00152505067592</v>
       </c>
       <c r="C17">
-        <v>24.83613507090027</v>
+        <v>26.07887770587025</v>
       </c>
       <c r="D17">
-        <v>11.28281053043266</v>
+        <v>3.214928806094902</v>
       </c>
       <c r="E17">
-        <v>38.89516505701497</v>
+        <v>37.0131459597586</v>
       </c>
       <c r="F17">
-        <v>78.23133573472921</v>
+        <v>25.86616046298857</v>
       </c>
       <c r="G17">
-        <v>1.942763750988218</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>36.82628832822994</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.8875387393154</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.18717068166766</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.45767192010447</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1167,40 +1215,43 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.35481734302608</v>
+        <v>29.62769909805493</v>
       </c>
       <c r="C18">
-        <v>24.43910093995103</v>
+        <v>25.7323090857154</v>
       </c>
       <c r="D18">
-        <v>11.13348911491286</v>
+        <v>3.208908008292842</v>
       </c>
       <c r="E18">
-        <v>38.23872953363003</v>
+        <v>36.48162672126502</v>
       </c>
       <c r="F18">
-        <v>77.0417318035453</v>
+        <v>25.60929671393956</v>
       </c>
       <c r="G18">
-        <v>1.948377868415481</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>36.41776614663112</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.813884233671957</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.13990972763268</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.47421354659291</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1214,40 +1265,43 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.17939591197628</v>
+        <v>29.49967896165456</v>
       </c>
       <c r="C19">
-        <v>24.30475469442353</v>
+        <v>25.63433557569831</v>
       </c>
       <c r="D19">
-        <v>11.08310118995634</v>
+        <v>3.211344359569056</v>
       </c>
       <c r="E19">
-        <v>38.01699054411648</v>
+        <v>36.30053548062338</v>
       </c>
       <c r="F19">
-        <v>76.63917250456609</v>
+        <v>25.48813177869704</v>
       </c>
       <c r="G19">
-        <v>1.950266731702673</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>36.21946405629559</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.789676767472248</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.11041558183678</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.45055694837129</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1261,40 +1315,43 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.96854963280287</v>
+        <v>30.07044353666289</v>
       </c>
       <c r="C20">
-        <v>24.90967278290259</v>
+        <v>26.13590917650443</v>
       </c>
       <c r="D20">
-        <v>11.31053303980038</v>
+        <v>3.214518425202436</v>
       </c>
       <c r="E20">
-        <v>39.01693697066646</v>
+        <v>37.11127921146612</v>
       </c>
       <c r="F20">
-        <v>78.45164968891439</v>
+        <v>25.92530204158497</v>
       </c>
       <c r="G20">
-        <v>1.941718685536793</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>36.92213596769967</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.900887890944042</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.20066739461202</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.4649524419607</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1308,40 +1365,43 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.62747179442938</v>
+        <v>31.92434408545504</v>
       </c>
       <c r="C21">
-        <v>26.95891802727065</v>
+        <v>27.75441369882138</v>
       </c>
       <c r="D21">
-        <v>12.09047941382318</v>
+        <v>3.220656800230934</v>
       </c>
       <c r="E21">
-        <v>42.4358931864789</v>
+        <v>39.78535661843782</v>
       </c>
       <c r="F21">
-        <v>84.5840914328231</v>
+        <v>27.43063738556625</v>
       </c>
       <c r="G21">
-        <v>1.911943352712803</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>39.39877321697031</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5.272616750242205</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.53283214101443</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.5793778067166</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1355,40 +1415,43 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.38893267083112</v>
+        <v>33.08976857190756</v>
       </c>
       <c r="C22">
-        <v>28.32698059617301</v>
+        <v>28.74765756703172</v>
       </c>
       <c r="D22">
-        <v>12.61797675994059</v>
+        <v>3.216815210856497</v>
       </c>
       <c r="E22">
-        <v>44.74911616656789</v>
+        <v>41.50055003039719</v>
       </c>
       <c r="F22">
-        <v>88.66440359819391</v>
+        <v>28.54800207785669</v>
       </c>
       <c r="G22">
-        <v>1.891371730509006</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>41.12836651668138</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.514690681442437</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.78383497779948</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.73336906892805</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1402,40 +1465,43 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.44523670829638</v>
+        <v>32.47289076644926</v>
       </c>
       <c r="C23">
-        <v>27.59292849431245</v>
+        <v>28.1878794981463</v>
       </c>
       <c r="D23">
-        <v>12.33434832085117</v>
+        <v>3.210881877772938</v>
       </c>
       <c r="E23">
-        <v>43.50458967050596</v>
+        <v>40.58854524124547</v>
       </c>
       <c r="F23">
-        <v>86.47688851490105</v>
+        <v>27.97689313152366</v>
       </c>
       <c r="G23">
-        <v>1.902478127042176</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>40.30232215915805</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.38486399581974</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.67184370464864</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.69998794225866</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1449,40 +1515,43 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.92522304524108</v>
+        <v>30.04071046394963</v>
       </c>
       <c r="C24">
-        <v>24.87642435347658</v>
+        <v>26.0558428187124</v>
       </c>
       <c r="D24">
-        <v>11.29799643622025</v>
+        <v>3.202447085851767</v>
       </c>
       <c r="E24">
-        <v>38.96187313677633</v>
+        <v>37.06792092265584</v>
       </c>
       <c r="F24">
-        <v>78.3520407366083</v>
+        <v>25.99132841598003</v>
       </c>
       <c r="G24">
-        <v>1.942191390765355</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>37.04097832223374</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.89331828954009</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.23188189785393</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.54306077908021</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1496,40 +1565,43 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.12536297092033</v>
+        <v>27.20954548668338</v>
       </c>
       <c r="C25">
-        <v>21.97609435544706</v>
+        <v>23.61223895018857</v>
       </c>
       <c r="D25">
-        <v>10.22222143521094</v>
+        <v>3.194973080784538</v>
       </c>
       <c r="E25">
-        <v>34.20189188957372</v>
+        <v>33.10133983697861</v>
       </c>
       <c r="F25">
-        <v>69.79983567977028</v>
+        <v>23.85010757766425</v>
       </c>
       <c r="G25">
-        <v>1.982132171958937</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>33.58039591958165</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.358482535645046</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.799433413823545</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>12.47265843523525</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,6 +1613,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_19/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_19/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,43 +421,49 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.94308144648824</v>
+        <v>24.86895160101531</v>
       </c>
       <c r="C2">
-        <v>21.58519479409142</v>
+        <v>22.20975614915284</v>
       </c>
       <c r="D2">
-        <v>3.172920026738549</v>
+        <v>3.388849429466428</v>
       </c>
       <c r="E2">
-        <v>30.01148016419559</v>
+        <v>29.95614666867669</v>
       </c>
       <c r="F2">
-        <v>22.43282096852754</v>
+        <v>21.29829212011153</v>
       </c>
       <c r="G2">
-        <v>31.28937338776164</v>
+        <v>28.80040148365059</v>
       </c>
       <c r="I2">
-        <v>3.955968496043898</v>
+        <v>3.831999818337301</v>
       </c>
       <c r="J2">
-        <v>9.575560831914753</v>
+        <v>9.881569185201162</v>
       </c>
       <c r="K2">
-        <v>12.61737568504521</v>
+        <v>11.871632858945</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>11.34594229729821</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.448135182672352</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,43 +477,49 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.28835297949403</v>
+        <v>23.23823763882665</v>
       </c>
       <c r="C3">
-        <v>20.17920820822495</v>
+        <v>20.69812320035469</v>
       </c>
       <c r="D3">
-        <v>3.169207893864802</v>
+        <v>3.337591549869042</v>
       </c>
       <c r="E3">
-        <v>27.79961142433553</v>
+        <v>27.76158733573583</v>
       </c>
       <c r="F3">
-        <v>21.38414764847752</v>
+        <v>20.43268455386958</v>
       </c>
       <c r="G3">
-        <v>29.56294045941251</v>
+        <v>27.3288243018536</v>
       </c>
       <c r="I3">
-        <v>3.677163409813299</v>
+        <v>3.593217910958699</v>
       </c>
       <c r="J3">
-        <v>9.40843685713501</v>
+        <v>9.754957254103507</v>
       </c>
       <c r="K3">
-        <v>12.67875287897997</v>
+        <v>12.05000526623956</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>11.55900223520265</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.413211821839313</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -521,43 +533,49 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.21366093938064</v>
+        <v>22.1783461201278</v>
       </c>
       <c r="C4">
-        <v>19.27554437604578</v>
+        <v>19.72446011108441</v>
       </c>
       <c r="D4">
-        <v>3.167561397034676</v>
+        <v>3.306618174668442</v>
       </c>
       <c r="E4">
-        <v>26.3807008810615</v>
+        <v>26.35221074081527</v>
       </c>
       <c r="F4">
-        <v>20.73882656332893</v>
+        <v>19.90077779917972</v>
       </c>
       <c r="G4">
-        <v>28.49083949975601</v>
+        <v>26.42224741530791</v>
       </c>
       <c r="I4">
-        <v>3.502426779641838</v>
+        <v>3.443538966243692</v>
       </c>
       <c r="J4">
-        <v>9.313597194351102</v>
+        <v>9.679424937362207</v>
       </c>
       <c r="K4">
-        <v>12.72990372569956</v>
+        <v>12.16814078637235</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.69012042147601</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.433928332603643</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -571,43 +589,49 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.76058962036348</v>
+        <v>21.73137434970395</v>
       </c>
       <c r="C5">
-        <v>18.90865478611785</v>
+        <v>19.32698799224771</v>
       </c>
       <c r="D5">
-        <v>3.168777135723311</v>
+        <v>3.295957651359634</v>
       </c>
       <c r="E5">
-        <v>25.78665342752303</v>
+        <v>25.7618261736097</v>
       </c>
       <c r="F5">
-        <v>20.45706410749041</v>
+        <v>19.66718697598103</v>
       </c>
       <c r="G5">
-        <v>28.01738293302167</v>
+        <v>26.02119592187958</v>
       </c>
       <c r="I5">
-        <v>3.430361273174948</v>
+        <v>3.382090050380149</v>
       </c>
       <c r="J5">
-        <v>9.270207986549163</v>
+        <v>9.643498048438493</v>
       </c>
       <c r="K5">
-        <v>12.7407609722592</v>
+        <v>12.20721915095393</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.73475258037179</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.444582469265383</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -621,43 +645,49 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.68412198155679</v>
+        <v>21.65595216120715</v>
       </c>
       <c r="C6">
-        <v>18.86128961335256</v>
+        <v>19.27351596823176</v>
       </c>
       <c r="D6">
-        <v>3.171121974242187</v>
+        <v>3.296444804021665</v>
       </c>
       <c r="E6">
-        <v>25.68690209249982</v>
+        <v>25.66268670880317</v>
       </c>
       <c r="F6">
-        <v>20.38738756989021</v>
+        <v>19.6077420383066</v>
       </c>
       <c r="G6">
-        <v>27.89705099453713</v>
+        <v>25.9164956590245</v>
       </c>
       <c r="I6">
-        <v>3.418606895448627</v>
+        <v>3.372473642397636</v>
       </c>
       <c r="J6">
-        <v>9.255011420978049</v>
+        <v>9.630627380444649</v>
       </c>
       <c r="K6">
-        <v>12.72675892881022</v>
+        <v>12.20036932199899</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.73132254156644</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.437266232679873</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -671,43 +701,49 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.20671007374737</v>
+        <v>22.17109224563615</v>
       </c>
       <c r="C7">
-        <v>19.30845431302579</v>
+        <v>19.7434005632551</v>
       </c>
       <c r="D7">
-        <v>3.173453669286967</v>
+        <v>3.316713851250007</v>
       </c>
       <c r="E7">
-        <v>26.37233537825206</v>
+        <v>26.3435963152888</v>
       </c>
       <c r="F7">
-        <v>20.67345545494991</v>
+        <v>19.80866434135134</v>
       </c>
       <c r="G7">
-        <v>28.37302875873894</v>
+        <v>26.39230474691872</v>
       </c>
       <c r="I7">
-        <v>3.50189490655549</v>
+        <v>3.443294795895834</v>
       </c>
       <c r="J7">
-        <v>9.290980109979827</v>
+        <v>9.598608543755441</v>
       </c>
       <c r="K7">
-        <v>12.68626698839713</v>
+        <v>12.11649656074573</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.64944098131059</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.395066728226048</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -721,43 +757,49 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.38352783020316</v>
+        <v>24.31635387019948</v>
       </c>
       <c r="C8">
-        <v>21.15501596777912</v>
+        <v>21.70723718931149</v>
       </c>
       <c r="D8">
-        <v>3.179537711700251</v>
+        <v>3.393289309145952</v>
       </c>
       <c r="E8">
-        <v>29.26059751751236</v>
+        <v>29.210340940685</v>
       </c>
       <c r="F8">
-        <v>21.99467563882916</v>
+        <v>20.82527783845715</v>
       </c>
       <c r="G8">
-        <v>30.55896430617418</v>
+        <v>28.41005946993227</v>
       </c>
       <c r="I8">
-        <v>3.860647343248495</v>
+        <v>3.749063486912491</v>
       </c>
       <c r="J8">
-        <v>9.487726149850612</v>
+        <v>9.612854307600688</v>
       </c>
       <c r="K8">
-        <v>12.57732451251094</v>
+        <v>11.83152617970253</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>11.34606219248741</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.344221857449432</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -771,43 +813,49 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.19290278116164</v>
+        <v>28.06444947256738</v>
       </c>
       <c r="C9">
-        <v>24.39980507880212</v>
+        <v>25.18525716158221</v>
       </c>
       <c r="D9">
-        <v>3.185797163727982</v>
+        <v>3.520580361670731</v>
       </c>
       <c r="E9">
-        <v>34.46335409541976</v>
+        <v>34.36121860203555</v>
       </c>
       <c r="F9">
-        <v>24.66647323454185</v>
+        <v>23.02611746005865</v>
       </c>
       <c r="G9">
-        <v>34.91750631635735</v>
+        <v>32.21069541710033</v>
       </c>
       <c r="I9">
-        <v>4.539124298408021</v>
+        <v>4.32817678588412</v>
       </c>
       <c r="J9">
-        <v>9.976749768835369</v>
+        <v>9.91646658649322</v>
       </c>
       <c r="K9">
-        <v>12.5634867217338</v>
+        <v>11.47319265535534</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.84400203239785</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.692475380024783</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -821,43 +869,49 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.7177510810272</v>
+        <v>30.53964646804468</v>
       </c>
       <c r="C10">
-        <v>26.6140271731334</v>
+        <v>27.4947350232768</v>
       </c>
       <c r="D10">
-        <v>3.197344917956122</v>
+        <v>3.644432213126243</v>
       </c>
       <c r="E10">
-        <v>38.03608087990279</v>
+        <v>37.88315596220193</v>
       </c>
       <c r="F10">
-        <v>26.58286553855087</v>
+        <v>24.45333151886572</v>
       </c>
       <c r="G10">
-        <v>37.99882132270059</v>
+        <v>35.37133178479029</v>
       </c>
       <c r="I10">
-        <v>5.026772231314881</v>
+        <v>4.740359709659129</v>
       </c>
       <c r="J10">
-        <v>10.3696960400201</v>
+        <v>9.813991107822075</v>
       </c>
       <c r="K10">
-        <v>12.62532195421664</v>
+        <v>11.16678030345043</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.40836734200967</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.065807479194611</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -871,43 +925,49 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.80761154670709</v>
+        <v>31.60240269779636</v>
       </c>
       <c r="C11">
-        <v>27.62775245257356</v>
+        <v>28.46024835884954</v>
       </c>
       <c r="D11">
-        <v>3.21451956322756</v>
+        <v>3.757947957618987</v>
       </c>
       <c r="E11">
-        <v>39.61459479175513</v>
+        <v>39.43092589775142</v>
       </c>
       <c r="F11">
-        <v>27.37368470365023</v>
+        <v>24.7645679726459</v>
       </c>
       <c r="G11">
-        <v>39.3061726052534</v>
+        <v>37.30251570886905</v>
       </c>
       <c r="I11">
-        <v>5.247907975071698</v>
+        <v>4.922503153604429</v>
       </c>
       <c r="J11">
-        <v>10.52734875740375</v>
+        <v>9.176260289801688</v>
       </c>
       <c r="K11">
-        <v>12.60751724561919</v>
+        <v>10.82732905520132</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.08351258390866</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>7.224382515152353</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -921,43 +981,49 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.21286851605198</v>
+        <v>31.99673350728121</v>
       </c>
       <c r="C12">
-        <v>27.98169516408214</v>
+        <v>28.78763119806376</v>
       </c>
       <c r="D12">
-        <v>3.215427208973541</v>
+        <v>3.80114659378544</v>
       </c>
       <c r="E12">
-        <v>40.20704301757286</v>
+        <v>40.01049958857018</v>
       </c>
       <c r="F12">
-        <v>27.71480620257323</v>
+        <v>24.89005007012361</v>
       </c>
       <c r="G12">
-        <v>39.87450230357955</v>
+        <v>38.16340987339941</v>
       </c>
       <c r="I12">
-        <v>5.331295260664352</v>
+        <v>4.989667731893544</v>
       </c>
       <c r="J12">
-        <v>10.60584638104839</v>
+        <v>8.883775358570748</v>
       </c>
       <c r="K12">
-        <v>12.64273249563317</v>
+        <v>10.71286616912887</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.969248699988281</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.35061154432472</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -971,43 +1037,49 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.12607682766924</v>
+        <v>31.91229858685612</v>
       </c>
       <c r="C13">
-        <v>27.90088309999386</v>
+        <v>28.71332763324079</v>
       </c>
       <c r="D13">
-        <v>3.214053123734724</v>
+        <v>3.790325800954524</v>
       </c>
       <c r="E13">
-        <v>40.07979267575375</v>
+        <v>39.88605804747966</v>
       </c>
       <c r="F13">
-        <v>27.64961050230452</v>
+        <v>24.87184643215911</v>
       </c>
       <c r="G13">
-        <v>39.76644550921134</v>
+        <v>37.98800682117636</v>
       </c>
       <c r="I13">
-        <v>5.313245367779563</v>
+        <v>4.974961585407156</v>
       </c>
       <c r="J13">
-        <v>10.59226526260631</v>
+        <v>8.952350598626646</v>
       </c>
       <c r="K13">
-        <v>12.6425513038555</v>
+        <v>10.74456800779882</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.997952018207929</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.329199461112687</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1021,43 +1093,49 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.84116902391085</v>
+        <v>31.63506363526811</v>
       </c>
       <c r="C14">
-        <v>27.65491356591168</v>
+        <v>28.48557187905727</v>
       </c>
       <c r="D14">
-        <v>3.214094326524951</v>
+        <v>3.760853998825937</v>
       </c>
       <c r="E14">
-        <v>39.66348909204493</v>
+        <v>39.47877770717558</v>
       </c>
       <c r="F14">
-        <v>27.40529139064379</v>
+        <v>24.77870002961668</v>
       </c>
       <c r="G14">
-        <v>39.35908239278616</v>
+        <v>37.37756895965133</v>
       </c>
       <c r="I14">
-        <v>5.254724857071578</v>
+        <v>4.927921341397851</v>
       </c>
       <c r="J14">
-        <v>10.53522437234301</v>
+        <v>9.154664162272251</v>
       </c>
       <c r="K14">
-        <v>12.61356013115944</v>
+        <v>10.82093312592764</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.07588216019891</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>7.237269110710885</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1071,43 +1149,49 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.66534785860943</v>
+        <v>31.46390979108773</v>
       </c>
       <c r="C15">
-        <v>27.51320783584488</v>
+        <v>28.35303399251179</v>
       </c>
       <c r="D15">
-        <v>3.216439869309077</v>
+        <v>3.746025992726953</v>
       </c>
       <c r="E15">
-        <v>39.40756987646571</v>
+        <v>39.22826376413619</v>
       </c>
       <c r="F15">
-        <v>27.23906976576681</v>
+        <v>24.70273431725965</v>
       </c>
       <c r="G15">
-        <v>39.08066994623039</v>
+        <v>36.98619720028103</v>
       </c>
       <c r="I15">
-        <v>5.219122320464706</v>
+        <v>4.899635238457426</v>
       </c>
       <c r="J15">
-        <v>10.49374360403099</v>
+        <v>9.26465380937212</v>
       </c>
       <c r="K15">
-        <v>12.58135243535914</v>
+        <v>10.85302567113926</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.11495304967388</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>7.168682266474362</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1121,43 +1205,49 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.6431933111296</v>
+        <v>30.46710520859744</v>
       </c>
       <c r="C16">
-        <v>26.6301060325048</v>
+        <v>27.50666249853303</v>
       </c>
       <c r="D16">
-        <v>3.215413961501683</v>
+        <v>3.657685516790613</v>
       </c>
       <c r="E16">
-        <v>37.93047256997998</v>
+        <v>37.77965643769713</v>
       </c>
       <c r="F16">
-        <v>26.38895993578022</v>
+        <v>24.29997384896664</v>
       </c>
       <c r="G16">
-        <v>37.66865197801809</v>
+        <v>35.03176588414767</v>
       </c>
       <c r="I16">
-        <v>5.01367132217232</v>
+        <v>4.732555472693981</v>
       </c>
       <c r="J16">
-        <v>10.30196400177566</v>
+        <v>9.798536068350968</v>
       </c>
       <c r="K16">
-        <v>12.50022008070711</v>
+        <v>11.08138330511519</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.3641699705539</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.96814395344671</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1171,43 +1261,49 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.00152505067592</v>
+        <v>29.83996085489046</v>
       </c>
       <c r="C17">
-        <v>26.07887770587025</v>
+        <v>26.95976550767417</v>
       </c>
       <c r="D17">
-        <v>3.214928806094902</v>
+        <v>3.613580653780242</v>
       </c>
       <c r="E17">
-        <v>37.0131459597586</v>
+        <v>36.87788600386818</v>
       </c>
       <c r="F17">
-        <v>25.86616046298857</v>
+        <v>23.99774256491139</v>
       </c>
       <c r="G17">
-        <v>36.82628832822994</v>
+        <v>33.94776776787744</v>
       </c>
       <c r="I17">
-        <v>4.8875387393154</v>
+        <v>4.628747679827427</v>
       </c>
       <c r="J17">
-        <v>10.18717068166766</v>
+        <v>10.00842961538868</v>
       </c>
       <c r="K17">
-        <v>12.45767192010447</v>
+        <v>11.19211910252743</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.49826250201142</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.890486705334451</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1221,43 +1317,49 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.62769909805493</v>
+        <v>29.47401837347833</v>
       </c>
       <c r="C18">
-        <v>25.7323090857154</v>
+        <v>26.61075965903695</v>
       </c>
       <c r="D18">
-        <v>3.208908008292842</v>
+        <v>3.585755127782569</v>
       </c>
       <c r="E18">
-        <v>36.48162672126502</v>
+        <v>36.35458625626907</v>
       </c>
       <c r="F18">
-        <v>25.60929671393956</v>
+        <v>23.84370103935012</v>
       </c>
       <c r="G18">
-        <v>36.41776614663112</v>
+        <v>33.43692133537149</v>
       </c>
       <c r="I18">
-        <v>4.813884233671957</v>
+        <v>4.566448059601848</v>
       </c>
       <c r="J18">
-        <v>10.13990972763268</v>
+        <v>10.10100888649566</v>
       </c>
       <c r="K18">
-        <v>12.47421354659291</v>
+        <v>11.27743386526081</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.58839779505255</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.868091016375326</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1271,43 +1373,49 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.49967896165456</v>
+        <v>29.34867612565655</v>
       </c>
       <c r="C19">
-        <v>25.63433557569831</v>
+        <v>26.50939211023474</v>
       </c>
       <c r="D19">
-        <v>3.211344359569056</v>
+        <v>3.5814911770094</v>
       </c>
       <c r="E19">
-        <v>36.30053548062338</v>
+        <v>36.17622525456995</v>
       </c>
       <c r="F19">
-        <v>25.48813177869704</v>
+        <v>23.75717229243752</v>
       </c>
       <c r="G19">
-        <v>36.21946405629559</v>
+        <v>33.21765640921012</v>
       </c>
       <c r="I19">
-        <v>4.789676767472248</v>
+        <v>4.546777853319687</v>
       </c>
       <c r="J19">
-        <v>10.11041558183678</v>
+        <v>10.11349510100701</v>
       </c>
       <c r="K19">
-        <v>12.45055694837129</v>
+        <v>11.27991969137026</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.60232431339282</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.837076824944324</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1321,43 +1429,49 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.07044353666289</v>
+        <v>29.90736482846964</v>
       </c>
       <c r="C20">
-        <v>26.13590917650443</v>
+        <v>27.01717572256604</v>
       </c>
       <c r="D20">
-        <v>3.214518425202436</v>
+        <v>3.617441473650151</v>
       </c>
       <c r="E20">
-        <v>37.11127921146612</v>
+        <v>36.97442673474816</v>
       </c>
       <c r="F20">
-        <v>25.92530204158497</v>
+        <v>24.03513252435416</v>
       </c>
       <c r="G20">
-        <v>36.92213596769967</v>
+        <v>34.06414125022314</v>
       </c>
       <c r="I20">
-        <v>4.900887890944042</v>
+        <v>4.639687021410702</v>
       </c>
       <c r="J20">
-        <v>10.20066739461202</v>
+        <v>9.991716110121152</v>
       </c>
       <c r="K20">
-        <v>12.4649524419607</v>
+        <v>11.18391753866922</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.48625665341663</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.901723805656257</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1371,43 +1485,49 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.92434408545504</v>
+        <v>31.71483163175336</v>
       </c>
       <c r="C21">
-        <v>27.75441369882138</v>
+        <v>28.54839091277607</v>
       </c>
       <c r="D21">
-        <v>3.220656800230934</v>
+        <v>3.792474257989288</v>
       </c>
       <c r="E21">
-        <v>39.78535661843782</v>
+        <v>39.59661263931543</v>
       </c>
       <c r="F21">
-        <v>27.43063738556625</v>
+        <v>24.66848779080642</v>
       </c>
       <c r="G21">
-        <v>39.39877321697031</v>
+        <v>37.69728300846123</v>
       </c>
       <c r="I21">
-        <v>5.272616750242205</v>
+        <v>4.941396165439535</v>
       </c>
       <c r="J21">
-        <v>10.53283214101443</v>
+        <v>8.882800287228648</v>
       </c>
       <c r="K21">
-        <v>12.5793778067166</v>
+        <v>10.70776929571977</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.999921076413173</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.188190989528567</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1421,43 +1541,49 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.08976857190756</v>
+        <v>32.84862122798006</v>
       </c>
       <c r="C22">
-        <v>28.74765756703172</v>
+        <v>29.47773382195153</v>
       </c>
       <c r="D22">
-        <v>3.216815210856497</v>
+        <v>3.907048748473144</v>
       </c>
       <c r="E22">
-        <v>41.50055003039719</v>
+        <v>41.27349094027597</v>
       </c>
       <c r="F22">
-        <v>28.54800207785669</v>
+        <v>25.11663761984851</v>
       </c>
       <c r="G22">
-        <v>41.12836651668138</v>
+        <v>40.17690540383542</v>
       </c>
       <c r="I22">
-        <v>5.514690681442437</v>
+        <v>5.136277602342693</v>
       </c>
       <c r="J22">
-        <v>10.78383497779948</v>
+        <v>8.129245588909844</v>
       </c>
       <c r="K22">
-        <v>12.73336906892805</v>
+        <v>10.43329551375553</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.702528356385255</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.606649707867505</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1471,43 +1597,49 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.47289076644926</v>
+        <v>32.24945546381506</v>
       </c>
       <c r="C23">
-        <v>28.1878794981463</v>
+        <v>28.97544215165808</v>
       </c>
       <c r="D23">
-        <v>3.210881877772938</v>
+        <v>3.825366687130157</v>
       </c>
       <c r="E23">
-        <v>40.58854524124547</v>
+        <v>40.38327782964263</v>
       </c>
       <c r="F23">
-        <v>27.97689313152366</v>
+        <v>24.99516416635646</v>
       </c>
       <c r="G23">
-        <v>40.30232215915805</v>
+        <v>38.79214477202369</v>
       </c>
       <c r="I23">
-        <v>5.38486399581974</v>
+        <v>5.031858073841806</v>
       </c>
       <c r="J23">
-        <v>10.67184370464864</v>
+        <v>8.689049129702573</v>
       </c>
       <c r="K23">
-        <v>12.69998794225866</v>
+        <v>10.66149885247933</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.908483539296368</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.450400084237821</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1521,43 +1653,49 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.04071046394963</v>
+        <v>29.87811523099473</v>
       </c>
       <c r="C24">
-        <v>26.0558428187124</v>
+        <v>26.94078220554722</v>
       </c>
       <c r="D24">
-        <v>3.202447085851767</v>
+        <v>3.603078995644699</v>
       </c>
       <c r="E24">
-        <v>37.06792092265584</v>
+        <v>36.93163559690265</v>
       </c>
       <c r="F24">
-        <v>25.99132841598003</v>
+        <v>24.10227636732162</v>
       </c>
       <c r="G24">
-        <v>37.04097832223374</v>
+        <v>34.15712815727503</v>
       </c>
       <c r="I24">
-        <v>4.89331828954009</v>
+        <v>4.631217852198734</v>
       </c>
       <c r="J24">
-        <v>10.23188189785393</v>
+        <v>10.03072070298792</v>
       </c>
       <c r="K24">
-        <v>12.54306077908021</v>
+        <v>11.25529158818369</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.53355462106818</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.957829188200479</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1571,43 +1709,49 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.20954548668338</v>
+        <v>27.09872109934173</v>
       </c>
       <c r="C25">
-        <v>23.61223895018857</v>
+        <v>24.3483331088104</v>
       </c>
       <c r="D25">
-        <v>3.194973080784538</v>
+        <v>3.491778224766787</v>
       </c>
       <c r="E25">
-        <v>33.10133983697861</v>
+        <v>33.01541542190504</v>
       </c>
       <c r="F25">
-        <v>23.85010757766425</v>
+        <v>22.38642702662002</v>
       </c>
       <c r="G25">
-        <v>33.58039591958165</v>
+        <v>30.93627002234634</v>
       </c>
       <c r="I25">
-        <v>4.358482535645046</v>
+        <v>4.176863411771952</v>
       </c>
       <c r="J25">
-        <v>9.799433413823545</v>
+        <v>9.884028284302998</v>
       </c>
       <c r="K25">
-        <v>12.47265843523525</v>
+        <v>11.51606017716832</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.95066563010623</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.520407032515886</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1619,6 +1763,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
